--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.35203077405237787, 0.34918772432137885, 0.3340374186136253, 0.31480351596816386, 0.4867554911256045, 0.32007683744619614, 0.33525588951204705, 0.3175882542213878, 0.29775625280960033, 0.28012129823949233, 0.2674913518265443, 0.2911300745808707, 0.28644272416050426, 0.30524138960818176, 0.2900127435117827, 0.24333632008858017, 0.267928215524309, 0.2476351962949565, 0.25707374590446325]</t>
+    <t>[1.0, 0.32079848306623565, 0.3203464742749374, 0.30383664767653634, 0.2798568313288857, 0.4611029568298524, 0.28803404419654394, 0.30594939986523295, 0.28490971784891517, 0.2617786636679555, 0.24496516110730146, 0.23195750653055858, 0.2598396651269607, 0.25286424285428505, 0.26973344322086434, 0.2583382816011391, 0.20679644239414074, 0.23363571719323614, 0.20921430010915698, 0.2186498618795144]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.3717249665909759, 0.3501966371162715, 0.3517199558168778, 0.3053325748591849, 0.36675484136218417, 0.30359488159280384, 0.3055219459642076, 0.2994271761421686, 0.27553401458701193, 0.27993153504407164, 0.2456599796636141, 0.2582482092687956, 0.2523818141885392, 0.269681754015055, 0.28838445718831796, 0.23175271813508314, 0.24856281003393368, 0.24173721638160586, 0.23461000035365595]</t>
+    <t>[1.0, 0.34846664012182754, 0.3247377283461004, 0.32978274763561793, 0.27778770719023343, 0.340320782054213, 0.2762465449480141, 0.27654745747550985, 0.2727665982663586, 0.24606579296650008, 0.2519179358383495, 0.21482364521630878, 0.23071921078354268, 0.22412884568464453, 0.2364145713556307, 0.2611590783395203, 0.20021590084537091, 0.21833260683478622, 0.2133731690708593, 0.20227042456278072]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.08011606222807825, -0.04556570579374077, -0.07449501858966708, -0.09710707465745984, 0.2881466019579066, -0.031857873830362635, 0.0591164763652073, -0.000770305629736461, -0.003317556094072809, -0.030560343405959305, -0.026342610060730787, 0.013169725853627917, 0.024414498574600776, 0.08629458109047598, 0.023652627986796942, 0.004099335059872859, -0.015020203092294475, -0.01829947308849202, 0.029650535535879267]</t>
+    <t>[1.0, -0.029494783234397005, -0.001969823308512687, -0.035374519020862624, -0.07400974511999941, 0.3054380810541253, -0.007307433594557866, 0.07733258989082864, 0.022415563674440912, -0.0018680692763889191, -0.02340574413524617, -0.019509466339076437, 0.02951933795402626, 0.03352462644888923, 0.08342770378050847, 0.027720743543569078, 0.002773267596367175, -0.009872712509838939, -0.01944839228819721, 0.022807578359101206]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.08236399077568478, -0.047243120849907894, -0.07576091594457474, -0.09827644771293315, 0.2872703098184291, -0.033005064436410304, 0.05836926548619743, -0.0016461264443843162, -0.0036712256994842853, -0.030982653817645447, -0.02700861108711847, 0.012651000124880614, 0.023858797659068884, 0.08621757778201741, 0.023457543148252036, 0.00375053929321563, -0.015366087609803838, -0.01870820002076732, 0.02960070627834414]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, -0.0613487095469825, -0.03329877322125965, -0.0509823624081506, -0.05543419827643912, 0.22173395499259477, -0.02358813541505642, 0.0380235480887796, -0.001027704363528943, -0.00019042352822886929, -0.01784372306145166, -0.012058763464072827, 0.009135344131818775, 0.014464696429210624, 0.07458827640682557, 0.02494219238066883, 0.003649918313650359, 0.0045943900193967475, -0.0013040555031623422, 0.02129517960608168]</t>
+    <t>[0.9999999999999998, -0.04690796695155648, -0.017069159133581577, -0.04883935806875373, -0.08655405172804705, 0.2953700681878833, -0.02111278575039498, 0.06658404820412295, 0.009475254108522613, -0.00967957905246629, -0.030363838633874936, -0.029302971300085905, 0.02127246399481523, 0.02444839814166219, 0.07922393999687773, 0.022075524532809546, -0.0037177421327436616, -0.015370411646061235, -0.025153865379800692, 0.019648753809765763]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999998, -0.02428935761627396, -0.004077367648715554, -0.0377347852749759, -0.04738805440505218, 0.195814960333635, -0.023038996144091124, 0.02844159635644579, -0.009820840067729205, -0.022027751982454505, -0.035656552275603784, -0.02482044457344369, -0.008377053577134483, -0.0028140405161985217, 0.04719432045927575, -0.0053434797688313995, -0.01817180717975269, -0.015500200642476963, -0.024335698102244535, -0.01611142641082071]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-8.537320950072102E-05</v>
+        <v>-8.196949479999377E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7915048133620994</v>
+        <v>0.7919696721424998</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001689971180146931</v>
+        <v>0.002073834418975113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1.042873367404884</v>
+        <v>1.060773480662983</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.01035901284650198</v>
+        <v>-0.01227695791452814</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7574693411884886</v>
+        <v>0.746199289076375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001032145983501985</v>
+        <v>0.001246255001583923</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01061703566557242</v>
+        <v>0.01281216770763816</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7572624878420896</v>
+        <v>0.7464909570823748</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.001238086093041885</v>
+        <v>0.001525397501077416</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002995357566311945</v>
+        <v>0.0001931551601134447</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.77344259934248E-05</v>
+        <v>4.629545446446967E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1999999862910164</v>
+        <v>0.1000001338149829</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7799999465349639</v>
+        <v>0.8800000173411046</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002556031483847246</v>
+        <v>-0.0002847003374522831</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.773439306382749E-05</v>
+        <v>4.629535122323516E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.2000001198578977</v>
+        <v>0.1000000631070222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7750000799770124</v>
+        <v>0.854999999396984</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01000005928156705</v>
+        <v>0.04999993404547573</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2.471341805257872E-05</v>
+        <v>0.0003038648332910364</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.380111986788134E-05</v>
+        <v>6.076152847966793E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1999999803918985</v>
+        <v>0.1303793987461055</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7749999226290524</v>
+        <v>0.9142725538503874</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.00999998983116999</v>
+        <v>-0.08930390717180545</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7914693868838156</v>
+        <v>0.7683838256670201</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.32079848306623565, 0.3203464742749374, 0.30383664767653634, 0.2798568313288857, 0.4611029568298524, 0.28803404419654394, 0.30594939986523295, 0.28490971784891517, 0.2617786636679555, 0.24496516110730146, 0.23195750653055858, 0.2598396651269607, 0.25286424285428505, 0.26973344322086434, 0.2583382816011391, 0.20679644239414074, 0.23363571719323614, 0.20921430010915698, 0.2186498618795144]</t>
+    <t>[1.0, 0.023732346766579347, -0.04638569957282715, -0.12020218491831001, -0.12586660649996517, 0.0520734238363353, 0.01673535069328969, 0.06692951596553767, 0.023141806433832124, -0.00747405290850633, -0.06708637295634426, -0.04364949348862001, 0.002529499991237363, 0.02676620867398922, 0.07631326491308171, 0.039307081085521584, -0.0003959883018781687, -0.05228971117715194, -0.0576242126942052, -0.0008429905176588242]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.34846664012182754, 0.3247377283461004, 0.32978274763561793, 0.27778770719023343, 0.340320782054213, 0.2762465449480141, 0.27654745747550985, 0.2727665982663586, 0.24606579296650008, 0.2519179358383495, 0.21482364521630878, 0.23071921078354268, 0.22412884568464453, 0.2364145713556307, 0.2611590783395203, 0.20021590084537091, 0.21833260683478622, 0.2133731690708593, 0.20227042456278072]</t>
+    <t>[1.0, 0.09675147650289231, 0.009792639305827817, -0.012175979708188032, -0.008085634873128513, -0.005927402853014145, -0.000864025401580957, 0.006108876158650059, 0.0012046032510095667, 0.0019714942549751363, -0.007454028591247468, -0.000958596087635016, -0.006825574044825298, 0.019693520279518453, 0.028233033545550085, 0.00792329356093317, -0.0020193976291577533, -0.005327743454848329, 0.006059428676784363, -0.012123305886651444]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.029494783234397005, -0.001969823308512687, -0.035374519020862624, -0.07400974511999941, 0.3054380810541253, -0.007307433594557866, 0.07733258989082864, 0.022415563674440912, -0.0018680692763889191, -0.02340574413524617, -0.019509466339076437, 0.02951933795402626, 0.03352462644888923, 0.08342770378050847, 0.027720743543569078, 0.002773267596367175, -0.009872712509838939, -0.01944839228819721, 0.022807578359101206]</t>
+    <t>[1.0, 0.025508094498297204, -0.036914982248087626, -0.12904891686240694, -0.14105149491945151, 0.0843438872196942, 0.01259839849905599, 0.07936494500292539, 0.022329981128083726, -0.01637738393338926, -0.06412132810500472, -0.050573945908235704, -0.0005161051551699125, 0.030199658979178395, 0.08652411982689583, 0.03639477320946498, -0.010787075196567478, -0.0645899634636009, -0.06832062922466317, 0.008104214349137943]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, -0.04690796695155648, -0.017069159133581577, -0.04883935806875373, -0.08655405172804705, 0.2953700681878833, -0.02111278575039498, 0.06658404820412295, 0.009475254108522613, -0.00967957905246629, -0.030363838633874936, -0.029302971300085905, 0.02127246399481523, 0.02444839814166219, 0.07922393999687773, 0.022075524532809546, -0.0037177421327436616, -0.015370411646061235, -0.025153865379800692, 0.019648753809765763]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, -0.02428935761627396, -0.004077367648715554, -0.0377347852749759, -0.04738805440505218, 0.195814960333635, -0.023038996144091124, 0.02844159635644579, -0.009820840067729205, -0.022027751982454505, -0.035656552275603784, -0.02482044457344369, -0.008377053577134483, -0.0028140405161985217, 0.04719432045927575, -0.0053434797688313995, -0.01817180717975269, -0.015500200642476963, -0.024335698102244535, -0.01611142641082071]</t>
+    <t>[1.0, -0.00813828799688224, -0.03312683481797481, -0.12141465038333596, -0.13987891607105132, 0.09056903874282024, 0.008798226647294832, 0.07904513618011906, 0.02139235280722955, -0.01390631423904896, -0.06052381908524808, -0.04883165863270238, -0.0018764185693398835, 0.03167085473665313, 0.08741876965787235, 0.03618079533964133, -0.008050619274894363, -0.06235225105964492, -0.06545145160590261, 0.01272319741547963]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999998, -0.009948737850429597, -0.04575406623915185, -0.11818367795815124, -0.12613559606362357, 0.0569070586715898, 0.01387094502146015, 0.06742980174804601, 0.022988183084669125, -0.005588449984428338, -0.06515209653768768, -0.0436258711427586, 0.0025149658706444364, 0.024025306550922273, 0.07451998200080466, 0.0379273084255292, 0.0003474979810588748, -0.05183119910598594, -0.05810191184165471, -0.0005125876487555238]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-8.196949479999377E-05</v>
+        <v>-0.004768262808313045</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7919696721424998</v>
+        <v>0.7688888110379929</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002073834418975113</v>
+        <v>0.1028686299518762</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.01227695791452814</v>
+        <v>-0.1859068900982436</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.746199289076375</v>
+        <v>0.551211953425346</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001246255001583923</v>
+        <v>0.06001643437317947</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01281216770763816</v>
+        <v>0.1757726890812873</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7464909570823748</v>
+        <v>0.5576344903718747</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.001525397501077416</v>
+        <v>0.06073382125858157</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001931551601134447</v>
+        <v>-6.046801833794415E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>4.629545446446967E-05</v>
+        <v>0.0001291423356933811</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1000001338149829</v>
+        <v>0.002273644641537301</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8800000173411046</v>
+        <v>0.9965913068529439</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002847003374522831</v>
+        <v>-0.0003445393786604985</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>4.629535122323516E-05</v>
+        <v>0.1114476701672416</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1000000631070222</v>
+        <v>0.04183617997337925</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.854999999396984</v>
+        <v>6.063967687329516E-09</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.04999993404547573</v>
+        <v>-0.003252355184499491</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0003038648332910364</v>
+        <v>-0.005292607249834123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>6.076152847966793E-06</v>
+        <v>0.09928819197218135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1303793987461055</v>
+        <v>0.04592924667097358</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9142725538503874</v>
+        <v>1.235184730071553E-09</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.08930390717180545</v>
+        <v>-0.02445862898434712</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7683838256670201</v>
+        <v>0.7681058820971721</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.017394623853724388, -0.03886465718746512, -0.10612014864822897, -0.10541749118302461, 0.07253564881561507, 0.014024108813765378, 0.05092687260700317, 0.027559568355890518, -0.001774150785597039, -0.05609983102382482, -0.046352292848330985, -0.005268883493837883, 0.03748700182774793, 0.0682074548348537, 0.038115050375459834, -0.014980844691030532, -0.05179733713232354, -0.03672761384061975, -0.0008039810495319587]</t>
+    <t>[0.9999999999999999, 0.33946158343711, 0.34125169465527905, 0.3188024158459753, 0.30377310294201115, 0.501238080154443, 0.32595732762256935, 0.33342891480635306, 0.3196251240418694, 0.30049901821935254, 0.2946029839065674, 0.28121225603548694, 0.2909792475500102, 0.31329501186246744, 0.32948512612660086, 0.3026650722816156, 0.2772984323524291, 0.29193030018116306, 0.28908737459548817, 0.28623648591838696]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.08853532697308772, 0.008899134881757434, -0.00563867331628462, -0.011223612656058299, -0.008965393810569886, -0.004823994522554234, 0.0005417918062501441, 0.003384604084126507, 0.009397568729510983, -0.01126242137142391, -0.0056366045155473695, -0.011343654947059007, 0.027359110369960554, 0.02836004333686786, 0.006412151301965151, 0.001569903902169345, -0.001614938067276916, 0.008033041248675949, 0.0013609900235458689]</t>
+    <t>[0.9999999999999999, 0.36445934353256837, 0.34174219069493267, 0.34126403311521153, 0.30389410785702076, 0.3732957348543778, 0.3194669107101271, 0.3114748741393112, 0.29904154720229803, 0.27547340248766733, 0.30015314165955126, 0.26792893101864956, 0.26482126499654324, 0.2635847307644695, 0.2885620742518789, 0.31420336433637375, 0.26485914739532673, 0.26640756189680664, 0.27879395384771616, 0.26348342597892405]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.024842915321045683, -0.02771012836088814, -0.11593659517423531, -0.11901251528299353, 0.09838615161047204, 0.009140789708014182, 0.06264745919125343, 0.03530936147062949, -0.008115583024488613, -0.06266416370339033, -0.052104789373046176, -0.007715602227628128, 0.037816513609304186, 0.06580505004048826, 0.030118253408294864, -0.016841382127591266, -0.05242697100118894, -0.059627187132393115, 0.0015856702646175828]</t>
+    <t>[1.0, -0.08331080408483663, -0.05528697953383657, -0.09718775020770687, -0.09252378413800325, 0.3013669140283891, -0.03309454254153107, 0.05686365641186162, -0.0032054331467312237, -0.006653781691703549, -0.02632601402050589, -0.025754428478049724, -0.0008811668881979709, 0.033030436795600734, 0.08138672992058991, 0.02853514013493564, -0.0017776299991643057, -0.010573201985815473, -0.01514513509068795, 0.025210419763523204]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.02603061878617469, -0.02718697602854356, -0.11522801055052366, -0.11886901154339484, 0.09850670231720149, 0.009632932269097536, 0.0628461749143039, 0.035681474681267464, -0.007925178985121469, -0.06271952962299371, -0.05179657369682228, -0.007419664358266907, 0.03839931124466384, 0.0662506982805248, 0.030426754917489366, -0.016490579974945414, -0.05242181180194901, -0.05910488476628254, 0.0019468079595233636]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, -0.01461831591808541, -0.03812925313457633, -0.10519592802672244, -0.1067340726729677, 0.07694160963993477, 0.011347123542422396, 0.051389954770875844, 0.027626356085697364, -0.0008921782006777878, -0.05470506042906049, -0.04605350362133411, -0.005497537037721541, 0.03575151312800672, 0.06629614985936681, 0.03773210146511547, -0.014391666486381223, -0.052090488982275134, -0.03739521203956952, -0.0009098440208635322]</t>
+    <t>[1.0, -0.05073861929783802, -0.02965419603942369, -0.07551127133353605, -0.07020024626513445, 0.3124014038565995, -0.020414943355307802, 0.06732504184971372, 0.0073206729473030375, -0.00025653277107786645, -0.01829765302055078, -0.021379580273064587, 0.005446280220337026, 0.038991993914304475, 0.08335169487976186, 0.034807924912723776, 0.0001596533967078244, -0.005335192729075716, -0.01075128959129605, 0.030967311475503696]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999998, -0.06810290893194132, -0.03310670119976743, -0.0679405337271679, -0.049842397424505816, 0.22968097745468785, -0.025130993354099157, 0.036645467501377704, -0.006245278606965087, 0.0014279777449291054, -0.012995261281504134, -0.014942720531516046, -0.0035473078309468916, 0.02193623646241282, 0.07325091140556408, 0.030698685884510996, -0.0011529299312756168, 0.0038486431419186245, 0.00826934799085138, 0.02151196293244051]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005173706980338959</v>
+        <v>-0.0001937795527548159</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.769793898738188</v>
+        <v>0.7960856398156899</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1040402517043013</v>
+        <v>0.001479385803919736</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.187609866834929</v>
+        <v>-0.009358913782744869</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.553554023866398</v>
+        <v>0.7698223186380851</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.06197521798341341</v>
+        <v>0.0009379016832826149</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1719458943822152</v>
+        <v>0.009780399288728352</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5644870426260272</v>
+        <v>0.7607727225675658</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06087317603116649</v>
+        <v>0.001023018040085841</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-7.984020282576503E-05</v>
+        <v>0.0003279060636946329</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>8.45949174847879E-05</v>
+        <v>3.295211686320229E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.00245935394052652</v>
+        <v>0.2000062398467103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9967965684878934</v>
+        <v>0.7800028897075</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.000616850246082262</v>
+        <v>-0.0005020158321439698</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>4.490159188455545E-05</v>
+        <v>3.295198358091907E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0001813292580865781</v>
+        <v>0.1000002843557148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.997853717186991</v>
+        <v>0.8299997465973533</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.003136937558810587</v>
+        <v>0.09999981829131943</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005698861256505127</v>
+        <v>7.139045213874651E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1006401237359041</v>
+        <v>2.9858546605661E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.04485147632261632</v>
+        <v>0.1999963662190925</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>2.094613169534125E-10</v>
+        <v>0.7749858006593405</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02634499201788052</v>
+        <v>0.009997765824648007</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7687126489326623</v>
+        <v>0.7896263652286247</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.33946158343711, 0.34125169465527905, 0.3188024158459753, 0.30377310294201115, 0.501238080154443, 0.32595732762256935, 0.33342891480635306, 0.3196251240418694, 0.30049901821935254, 0.2946029839065674, 0.28121225603548694, 0.2909792475500102, 0.31329501186246744, 0.32948512612660086, 0.3026650722816156, 0.2772984323524291, 0.29193030018116306, 0.28908737459548817, 0.28623648591838696]</t>
+    <t>[0.9999999999999999, 0.3394615834371097, 0.34125169465527877, 0.3188024158459752, 0.30377310294201076, 0.5012380801544429, 0.3259573276225692, 0.3334289148063529, 0.3196251240418694, 0.3004990182193524, 0.2946029839065671, 0.281212256035487, 0.2909792475500101, 0.31329501186246705, 0.3294851261266005, 0.3026650722816155, 0.27729843235242907, 0.2919303001811631, 0.289087374595488, 0.2862364859183869]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.36445934353256837, 0.34174219069493267, 0.34126403311521153, 0.30389410785702076, 0.3732957348543778, 0.3194669107101271, 0.3114748741393112, 0.29904154720229803, 0.27547340248766733, 0.30015314165955126, 0.26792893101864956, 0.26482126499654324, 0.2635847307644695, 0.2885620742518789, 0.31420336433637375, 0.26485914739532673, 0.26640756189680664, 0.27879395384771616, 0.26348342597892405]</t>
+    <t>[1.0, 0.3644593435325687, 0.34174219069493267, 0.3412640331152117, 0.3038941078570208, 0.3732957348543776, 0.31946691071012706, 0.31147487413931135, 0.2990415472022977, 0.2754734024876674, 0.3001531416595514, 0.2679289310186494, 0.26482126499654296, 0.26358473076446925, 0.28856207425187874, 0.3142033643363738, 0.2648591473953265, 0.26640756189680664, 0.27879395384771616, 0.26348342597892416]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.08331080408483663, -0.05528697953383657, -0.09718775020770687, -0.09252378413800325, 0.3013669140283891, -0.03309454254153107, 0.05686365641186162, -0.0032054331467312237, -0.006653781691703549, -0.02632601402050589, -0.025754428478049724, -0.0008811668881979709, 0.033030436795600734, 0.08138672992058991, 0.02853514013493564, -0.0017776299991643057, -0.010573201985815473, -0.01514513509068795, 0.025210419763523204]</t>
+    <t>[0.9999999999999999, -0.08330969423644648, -0.05530348057643755, -0.09717873245051137, -0.09251861353005654, 0.3013856029557754, -0.03309024017407346, 0.056840917687674644, -0.00322017174491153, -0.006669604315273634, -0.026321502887569827, -0.025757186007022054, -0.0008801680548308395, 0.03301205690992386, 0.08137246514200253, 0.028517688081903487, -0.0017772547449771913, -0.01056774942685845, -0.015139582030272663, 0.025211490255448707]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.05073861929783802, -0.02965419603942369, -0.07551127133353605, -0.07020024626513445, 0.3124014038565995, -0.020414943355307802, 0.06732504184971372, 0.0073206729473030375, -0.00025653277107786645, -0.01829765302055078, -0.021379580273064587, 0.005446280220337026, 0.038991993914304475, 0.08335169487976186, 0.034807924912723776, 0.0001596533967078244, -0.005335192729075716, -0.01075128959129605, 0.030967311475503696]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, -0.06810290893194132, -0.03310670119976743, -0.0679405337271679, -0.049842397424505816, 0.22968097745468785, -0.025130993354099157, 0.036645467501377704, -0.006245278606965087, 0.0014279777449291054, -0.012995261281504134, -0.014942720531516046, -0.0035473078309468916, 0.02193623646241282, 0.07325091140556408, 0.030698685884510996, -0.0011529299312756168, 0.0038486431419186245, 0.00826934799085138, 0.02151196293244051]</t>
+    <t>[1.0, -0.0507435191454295, -0.029653702535673246, -0.07551462999685649, -0.07020367592281469, 0.3123937603409911, -0.020419294982327592, 0.06732552031643146, 0.00731809042330459, -0.0002562739058374842, -0.018299384176952777, -0.021380309125940092, 0.005444388835349923, 0.038990666937438086, 0.0833498182165279, 0.03480601269342047, 0.00015702561495329066, -0.005336090715441499, -0.01075411763962163, 0.03096543134366984]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.06841095812972302, -0.03335355729211142, -0.06816360679509703, -0.05002882254623103, 0.2290468177588533, -0.02541027267563184, 0.036274013823210105, -0.006538834111121806, 0.0011452452763483876, -0.013271539830095496, -0.015203063250916334, -0.0038556385610099236, 0.02163407526727137, 0.07298092997444904, 0.03040584303801168, -0.001425115988585313, 0.003604525647081118, 0.008034170653083861, 0.02127878123395087]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001937795527548159</v>
+        <v>-0.0001937795527548157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7960856398156899</v>
+        <v>0.7960856398156906</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1.046827281981676</v>
+        <v>0.5114389920424404</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.009358913782744869</v>
+        <v>-0.009358913782744905</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7698223186380851</v>
+        <v>0.7698223186380844</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009780399288728352</v>
+        <v>0.009780399288728413</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7607727225675658</v>
+        <v>0.7607727225675648</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0003279060636946329</v>
+        <v>0.000338166509740516</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.295211686320229E-05</v>
+        <v>3.295144761621651E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.2000062398467103</v>
+        <v>0.2000062956786136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7800028897075</v>
+        <v>0.7800029432996131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0005020158321439698</v>
+        <v>-0.0005036469541455161</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.295198358091907E-05</v>
+        <v>3.295129442383877E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1000002843557148</v>
+        <v>0.1000023593034829</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8299997465973533</v>
+        <v>0.8299978300990472</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.09999981829131943</v>
+        <v>0.09999725129024467</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>7.139045213874651E-06</v>
+        <v>4.027283228704354E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.9858546605661E-05</v>
+        <v>2.958853218011169E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1999963662190925</v>
+        <v>0.2000092267079983</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7749858006593405</v>
+        <v>0.7750033523966862</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.009997765824648007</v>
+        <v>0.01000260284505696</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7896263652286247</v>
+        <v>0.7890837928635408</v>
       </c>
     </row>
   </sheetData>
